--- a/medicine/Mort/Décès_en_1944/Décès_en_1944.xlsx
+++ b/medicine/Mort/Décès_en_1944/Décès_en_1944.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1944</t>
+          <t>Décès_en_1944</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1944</t>
+          <t>Décès_en_1944</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Marie Louise Amiet, dessinatrice et peintre française (° 17 avril 1879).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marie Louise Amiet, dessinatrice et peintre française (° 17 avril 1879).
 Gabriel Bau, footballeur espagnol (° 1892).
 Vladimir Baranov-Rossiné, peintre ukrainien (° 1er janvier 1888).
 Benoît Benoni-Auran, peintre français (° 1859).
@@ -548,9 +565,43 @@
 Henri Pinta, peintre français, prix de Rome en 1884 (° 1856).
 Ulisse Ribustini, peintre italien (° 26 août 1852).
 Octavie Charles Paul Séailles, peintre et graveuse française (° 1855).
-Eugenio Zampighi, peintre et photographe italien (° 17 octobre 1859).
-Janvier
-2 janvier : Jacques Gotko, peintre et chef décorateur français (° 1899).
+Eugenio Zampighi, peintre et photographe italien (° 17 octobre 1859).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Jacques Gotko, peintre et chef décorateur français (° 1899).
 9 janvier :
 Emmanuel de La Villéon, peintre et illustrateur post-impressionniste français (° 29 mai 1858).
 Thérèse Pomey, peintre française (° 26 janvier 1867).
@@ -568,9 +619,43 @@
 23 janvier : Edvard Munch, peintre norvégien (° 12 décembre 1863).
 24 janvier : Tano Genaro, musicien argentin (° 17 février 1886).
 29 janvier : Jules Huet de Froberville, peintre et décorateur de théâtre français (° 17 février 1868).
-31 janvier : Jean Giraudoux, écrivain et diplomate français (° 29 octobre 1882).
-Février
-1er février :
+31 janvier : Jean Giraudoux, écrivain et diplomate français (° 29 octobre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février :
 François Bovesse, homme politique belge (° 10 juin 1890).
 Piet Mondrian, peintre néerlandais (° 7 mars 1872).
 5 février : Marie-Alphonsine Loretti, ambulancière militaire française première femme décorée de la Médaille militaire (° 29 juillet 1915).
@@ -584,9 +669,43 @@
 12 février : John Saint-Hélier Lander, peintre portraitiste et paysagiste britannique (° 19 octobre 1868).
 13 février : Arthur Evans, syndicaliste canadien (° 24 avril 1890).
 26 février : Lucienne Heuvelmans, sculptrice, peintre et illustratrice française (° 25 décembre 1881).
-28 février : Olaf Nelson, homme politique et figure du mouvement anticolonial samoan (° 24 février 1883).
-Mars
-3 mars : Paul-Émile Janson, homme politique belge (° 30 mai 1872).
+28 février : Olaf Nelson, homme politique et figure du mouvement anticolonial samoan (° 24 février 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Paul-Émile Janson, homme politique belge (° 30 mai 1872).
 5 mars :
 Max Jacob, poète, romancier, essayiste, épistolier et peintre français (° 12 juillet 1876).
 Constant Montald, peintre et sculpteur belge (° 4 décembre 1862).
@@ -608,9 +727,43 @@
 Jules Ruhfel, résistant français (° 2 août 1909).
 28 mars : Jean-Marie Plum, prêtre catholique, organiste et compositeur belge (° 30 juin 1899).
 30 mars : Lucien Laurent-Gsell, peintre et illustrateur français (° 19 novembre 1860).
-? mars : Maurice Tastemain, peintre et maître-verrier français (° 6 septembre 1878).
-Avril
-3 avril : Octav Băncilă, peintre roumain (° 4 février 1872).
+? mars : Maurice Tastemain, peintre et maître-verrier français (° 6 septembre 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril : Octav Băncilă, peintre roumain (° 4 février 1872).
 4 avril  : Morris H. Whitehouse, architecte américain (° 21 mars 1878).
 6 avril :
 Ernest Lerwile, contrebassiste et compositeur français (° 4 août 1863).
@@ -626,9 +779,43 @@
 19 avril : Mohamed Ben Teffahi, musicien algérien (° 1870).
 22 avril : Hippolyte Aucouturier, coureur cycliste français (° 17 octobre 1876).
 28 avril : Matsuoka Hisashi, peintre japonais de style yōga (° 5 mars 1862).
-29 avril : Józef Klukowski, peintre et sculpteur polonais (° 13 novembre 1894).
-Mai
-3 mai : Cuyler Supplee, acteur américain (° 13 février 1894).
+29 avril : Józef Klukowski, peintre et sculpteur polonais (° 13 novembre 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai : Cuyler Supplee, acteur américain (° 13 février 1894).
 5 mai :
 Eric Edenwald, résistant français de la police municipale de Colmar (° 27 décembre 1909).
 Frédéric Hunsinger, résistant français de la police municipale de Colmar (° 23 novembre 1907).
@@ -639,9 +826,43 @@
 Karl Lederer, résistant autrichien au nazisme (° 22 septembre 1909).
 29 mai : Francisque Pomat, peintre et dessinateur français (° 25 mai 1874).
 30 mai : Maurice Dubois, peintre français (° 4 juin 1869).
-? mai : Édouard Crémieux, peintre français (° 21 janvier 1856).
-Juin
-2 juin :
+? mai : Édouard Crémieux, peintre français (° 21 janvier 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin :
 Achille Laugé, peintre post-impressionniste français (° 29 avril 1861).
 Zikmund Schul, compositeur allemand (° 11 janvier 1916).
 4 juin : Fernand Herrmann, acteur français (° 21 février 1886).
@@ -661,9 +882,43 @@
 Jean Zay, homme politique français (° 6 août 1904).
 21 juin : Nello Troggi, coureur cycliste italien (° 26 avril 1912).
 23 juin : Sefanaia Sukanaivalu, soldat fidjien récipiendaire de la croix de Victoria (° 1er janvier 1918).
-24 juin : Rio Gebhardt, pianiste, chef d'orchestre et compositeur allemand (° 1er novembre 1907).
-Juillet
-1er juillet : Henri-Marcel Magne, peintre et décorateur français (° 11 octobre 1877).
+24 juin : Rio Gebhardt, pianiste, chef d'orchestre et compositeur allemand (° 1er novembre 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Henri-Marcel Magne, peintre et décorateur français (° 11 octobre 1877).
 4 juillet : Gustave Brisgand, peintre  et pastelliste français (° 29 novembre 1867).
 7 juillet :
 Georges Mandel, homme politique français (° 5 juin 1885).
@@ -682,9 +937,43 @@
 29 juillet : Widgey R. Newman, scénariste, réalisateur et producteur de cinéma britannique (° 30 septembre 1900).
 31 juillet :
 Sophie Blum-Lazarus, peintre paysagiste et pastelliste française d'origine allemande (° 15 juillet 1867).
-Antoine de Saint-Exupéry, écrivain et aviateur français (° 29 juin 1900).
-Août
-2 août :
+Antoine de Saint-Exupéry, écrivain et aviateur français (° 29 juin 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août :
 Joseph Bonnet, organiste et compositeur français (° 17 mars 1884).
 Charles Hardinge, diplomate et homme politique britannique (° 20 juin 1858).
 5 août : Henri Romanetti, officier mitrailleur aérien, compagnon de la Libération (° 7 mars 1909).
@@ -701,9 +990,43 @@
 29 août : Jean-Claude Touche, musicien français (° 7 août 1926).
 30 août :
 Édouard Navellier, graveur, sculpteur et peintre français (° 26 mars 1865).
-Carl-Heinrich von Stülpnagel, général allemand (° 2 janvier 1886).
-Septembre
-2 septembre :
+Carl-Heinrich von Stülpnagel, général allemand (° 2 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre :
 Eugenio Gestri, coureur cycliste italien (° 27 octobre 1905).
 Maria Vetulani de Nisau, soldate polonaise (° 27 novembre 1944).
 5 septembre :
@@ -717,9 +1040,43 @@
 Hersz Berliński, insurgé polonais (° 1908).
 André Devambez, peintre et illustrateur français (° 26 mai 1867).
 Aristide Maillol, sculpteur et peintre français (° 8 décembre 1861).
-29 septembre : Wilhelm Leuschner, homme politique allemand (° 15 juin 1890).
-Octobre
-1er octobre : Abdelaziz Thâalbi, homme politique tunisien (° 5 septembre 1876).
+29 septembre : Wilhelm Leuschner, homme politique allemand (° 15 juin 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Abdelaziz Thâalbi, homme politique tunisien (° 5 septembre 1876).
 4 octobre : Harry Beresford, acteur anglais (° 4 novembre 1863).
 7 octobre : Abraham Léon, intellectuel et militant trotskiste belge (° 1918).
 10 octobre :
@@ -738,9 +1095,43 @@
 29 octobre : Max Götze, coureur cycliste sur piste allemand (° 13 octobre 1880).
 30 octobre :
 Paul Ladmirault, compositeur français (° 8 décembre 1877).
-Otto Wallburg, acteur et humoriste allemand (° 21 février 1889).
-Novembre
-6 novembre :
+Otto Wallburg, acteur et humoriste allemand (° 21 février 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6 novembre :
 Fritz Brodowski, général allemand (° 26 novembre 1886).
 Fernand Charpin, acteur français (° 1er juin 1887).
 Georges Dufétel, architecte et résistant français (° 21 février 1886).
@@ -773,9 +1164,43 @@
 Robert Gontier, résistant français du réseau Alliance pendant la Seconde Guerre mondiale (° 28 février 1915).
 André Joriot, officier et résistant français du réseau Alliance pendant la Seconde Guerre mondiale (° 3 novembre 1921).
 Martin Sabarots, résistant français du réseau Alliance pendant la Seconde Guerre mondiale (° 22 février 1894).
-Antoine Mariotte, compositeur français (° 22 décembre 1875).
-Décembre
-3 décembre: André de Grèce, membre de la famille royale grecque (° 2 février 1882 C.G).
+Antoine Mariotte, compositeur français (° 22 décembre 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1944</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1944</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre: André de Grèce, membre de la famille royale grecque (° 2 février 1882 C.G).
 4 décembre :
 Léon Desbuissons, peintre, graveur et aquafortiste français (° 30 mai 1863).
 Yan Bernard Dyl, peintre  et illustrateur français (° 18 juin 1887).
